--- a/biology/Botanique/Erythrococca/Erythrococca.xlsx
+++ b/biology/Botanique/Erythrococca/Erythrococca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrococca est un genre de plantes à fleurs de la famille des Euphorbiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 juillet 2017) :
 Erythrococca abyssinica Pax
 Erythrococca africana (Baill.) Prain
 Erythrococca angolensis (Müll.Arg.) Prain
@@ -581,7 +597,7 @@
 Erythrococca usambarica Prain
 Erythrococca welwitschiana (Müll.Arg.) Prain
 Erythrococca zambesiaca Prain
-Selon World Checklist of Selected Plant Families (WCSP)  (27 juillet 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (27 juillet 2017) :
 Erythrococca abyssinica Pax (1894)
 Erythrococca africana (Baill.) Prain (1911)
 Erythrococca angolensis (Müll.Arg.) Prain (1911)
@@ -624,12 +640,12 @@
 Erythrococca usambarica Prain (1911)
 Erythrococca welwitschiana (Müll.Arg.) Prain (1911)
 Erythrococca zambesiaca Prain (1911)
-Selon NCBI  (27 juillet 2017)[4] :
+Selon NCBI  (27 juillet 2017) :
 Erythrococca africana
 Erythrococca anomala
 Erythrococca berberidea
 Erythrococca menyharthii
-Selon The Plant List            (27 juillet 2017)[5] :
+Selon The Plant List            (27 juillet 2017) :
 Erythrococca abyssinica Pax
 Erythrococca africana (Baill.) Prain
 Erythrococca angolensis (Müll.Arg.) Prain
@@ -671,7 +687,7 @@
 Erythrococca usambarica Prain
 Erythrococca welwitschiana (Müll.Arg.) Prain
 Erythrococca zambesiaca Prain
-Selon Tropicos                                           (27 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Erythrococca abyssinica Pax
 Erythrococca aculeata Benth.
 Erythrococca africana (Baill.) Prain
